--- a/data/evaluation/evaluation_South_Autumn_Pomelo.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Pomelo.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3216.073122462272</v>
+        <v>3195.645965756932</v>
       </c>
       <c r="C4" t="n">
-        <v>18489435.89128977</v>
+        <v>18270206.32115836</v>
       </c>
       <c r="D4" t="n">
-        <v>4299.934405463619</v>
+        <v>4274.366189408479</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6210766953264333</v>
+        <v>-0.6018555601249054</v>
       </c>
     </row>
     <row r="5">
